--- a/public/example excel.xlsx
+++ b/public/example excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Nama Material</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Stok Terbaru Material</t>
+  </si>
+  <si>
+    <t>Limit Stock Material</t>
   </si>
   <si>
     <t>Stock Terpakai Material</t>
@@ -651,7 +654,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -663,6 +666,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1197,23 +1203,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="13.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="18.2222222222222" customWidth="1"/>
     <col min="4" max="4" width="20.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="22.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="39.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="22.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="18.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="22.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="39.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="22.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1226,14 +1233,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1242,7 +1252,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="1"/>
     </row>
   </sheetData>
